--- a/server/testsite/corona/CovidCount.xlsx
+++ b/server/testsite/corona/CovidCount.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Corona_korea_keep-distance김정웅\covid_19_all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swag0\Desktop\project\server\testsite\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67825E83-79D2-4FD1-921A-2FBC5DE68AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607B0050-5E88-44CB-A02D-2D54643E8585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="14" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20211118" sheetId="1" r:id="rId1"/>
-    <sheet name="20211117" sheetId="2" r:id="rId2"/>
+    <sheet name="20211201" sheetId="1" r:id="rId1"/>
+    <sheet name="20211130" sheetId="2" r:id="rId2"/>
     <sheet name="20211116" sheetId="3" r:id="rId3"/>
     <sheet name="20211110" sheetId="4" r:id="rId4"/>
     <sheet name="20211109" sheetId="5" r:id="rId5"/>
@@ -14257,7 +14257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A249"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -41964,7 +41964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C87CE-9F36-4C8B-AAEB-EE091DB45C26}">
   <dimension ref="A1:C249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
